--- a/anticorruptbehaviorbyregion.xlsx
+++ b/anticorruptbehaviorbyregion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Desktop/Data Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06331F-92A1-CD4A-BE52-DC2D82231779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8C83B-73FE-E146-A485-AE26F8B62D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="500" windowWidth="10000" windowHeight="15780" xr2:uid="{268DEE83-36EF-794B-8306-A017190ED53D}"/>
   </bookViews>
